--- a/biology/Botanique/Parcs_royaux_de_Londres/Parcs_royaux_de_Londres.xlsx
+++ b/biology/Botanique/Parcs_royaux_de_Londres/Parcs_royaux_de_Londres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les parcs royaux de Londres sont des espaces verts de la capitale du Royaume-Uni qui appartiennent en propre à la Couronne britannique.
@@ -495,7 +507,7 @@
 Regent's Park
 Richmond Park
 St. James's Park
-Brompton Cemetery[1]</t>
+Brompton Cemetery</t>
         </is>
       </c>
     </row>
@@ -523,7 +535,9 @@
           <t>Administration</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Royal Parks Agency, agence exécutive dépendant du Department for Culture, Media and Sport (« Ministère de la Culture, des médias et des sports ») gère ces parcs en vertu des pouvoirs découlant de la Loi sur les terres de la Couronne de 1851. La Metropolitan Police Service assure la sécurité des lieux (depuis que la Royal Parks Constabulary a été supprimée en 2004). Dans le cadre de ses fonctions, la Royal Parks Agency autorise le public à utiliser les parcs à des fins de loisirs, sous réserve que les règlements pris en vertu de la loi sur les parcs soient jugés nécessaires pour en garantir la bonne gestion, préserver l'ordre et prévenir les abus. La réglementation actuelle sur les parcs royaux et autres espaces date de 1997.Le financement des parcs royaux est essentiellement assuré par une subvention gouvernementale, ainsi que par le produit provenant d'activités commerciales (telles que la restauration) et la mise en scène d'événements publics (tels que des concerts) qui ont lieu dans ses parcs.
 </t>
